--- a/data/trans_dic/P54_A_7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -647,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>6,43; 25,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>3,03; 16,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,12 +768,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -782,7 +783,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0,0; 12,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>1,55; 14,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>1,61; 9,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
     </row>
@@ -852,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -877,12 +878,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -892,7 +893,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>0,0; 11,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>4,81; 16,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>0,0; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>3,75; 11,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
     </row>
@@ -962,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,12 +973,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -987,12 +988,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1002,7 +1003,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>1,41; 12,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,0; 7,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>5,11; 17,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>4,25; 12,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,5; 4,55</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>5,99; 22,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>2,36; 19,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>5,85; 16,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,12 +1198,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1212,12 +1213,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0,0; 18,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>2,28; 20,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0,0; 9,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>2,42; 13,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>0,0; 5,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1302,37 +1303,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,98; 8,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,76; 12,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,21; 2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,66; 9,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,22; 1,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15996</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15996</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7562; 30167</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6000; 33336</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2630</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8393</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16945</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1963; 18978</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14609</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4205; 25280</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17595</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20752</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25007</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15152</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9988; 35050</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9568</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12936; 39860</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8639</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8457</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16856</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25313</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2172; 19232</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11196</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8961; 29829</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12294</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14033; 40792</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1707; 15595</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16650</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8083</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24733</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8084; 29766</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2330; 18872</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13689; 39174</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6675</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11135</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15169</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2071; 18294</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12473</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4182; 23273</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12604</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>36451</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>76756</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>113207</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>10804</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21546; 58929</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10061</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55259; 103087</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 13333</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1779; 21997</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>87220; 148022</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 12899</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3511; 25542</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>